--- a/medicine/Enfance/Michael_Bond/Michael_Bond.xlsx
+++ b/medicine/Enfance/Michael_Bond/Michael_Bond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Michael Bond, dit Michael Bond, né le 13 janvier 1926 à Newbury dans le Berkshire et mort le 27 juin 2017 à Londres, est un auteur britannique de littérature pour la jeunesse.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Michael Bond est notamment le créateur de la série de l'ours Paddington avec A Bear called Paddington (« Un Ours nommé Paddington ») en 1958, premier titre de la série. Il a été fait officier de l'ordre de l'Empire britannique pour services rendus à la littérature jeunesse en 1997 et a obtenu un doctorat honoris causa de lettres de l'université de Reading en 2007. Il vivait à Londres, près de la station de métro Paddington. Il meurt le 27 juin 2017 à l'âge de 91 ans à son domicile londonien[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Bond est notamment le créateur de la série de l'ours Paddington avec A Bear called Paddington (« Un Ours nommé Paddington ») en 1958, premier titre de la série. Il a été fait officier de l'ordre de l'Empire britannique pour services rendus à la littérature jeunesse en 1997 et a obtenu un doctorat honoris causa de lettres de l'université de Reading en 2007. Il vivait à Londres, près de la station de métro Paddington. Il meurt le 27 juin 2017 à l'âge de 91 ans à son domicile londonien,.
 </t>
         </is>
       </c>
@@ -544,63 +558,179 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Ours Paddington
-Albums
-Textes : Michael Bond. Illustrations : R.W. Alley
+          <t>Série Ours Paddington</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Textes : Michael Bond. Illustrations : R.W. Alley
 Paddington : l'histoire de l'ours qui venait du Pérou. Michel Lafon, Paris, avril 2014  (ISBN 978-2-7499-2188-4)
 Paddington jardine. Michel Lafon, Paris, avril 2014  (ISBN 978-2-7499-2189-1)
 Le Noël surprise de Paddington. Michel Lafon, Paris, octobre 2014  (ISBN 978-2-7499-2228-7)
-Paddington graine de champion. Michel Lafon, Paris, octobre 2014  (ISBN 978-2-7499-2229-4)
-Romans
-Textes : Michael Bond. Illustrations : Peggy Fortnum
+Paddington graine de champion. Michel Lafon, Paris, octobre 2014  (ISBN 978-2-7499-2229-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Michael_Bond</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Bond</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Ours Paddington</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Textes : Michael Bond. Illustrations : Peggy Fortnum
 Les deux premiers ouvrages sont parus en Angleterre en 1958 et 1959 :
 A Bear Called Paddington, 1958
 Un ours nommé Paddington, Hachette, 2000 ; rééd. Michel Lafon, Paris, octobre 2014  (ISBN 978-2-7499-2270-6)
 More About Paddington, 1959
-Les Secrets de Paddington. Michel Lafon, Paris, octobre 2014  (ISBN 978-2-7499-2271-3)
-Série Charlotte
-Il a également créé la série Olga da Polga en 1971, traduit sous le titre Charlotte.
+Les Secrets de Paddington. Michel Lafon, Paris, octobre 2014  (ISBN 978-2-7499-2271-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Michael_Bond</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Bond</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Charlotte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il a également créé la série Olga da Polga en 1971, traduit sous le titre Charlotte.
 Les deux premiers titres de la série :
 The Tales of Olga da Polga, 1971
 Charlotte parlotte, Fernand Nathan, 1979 ; et rééd.
 Olga Meets Her Match, 1973
-Un amour de Charlotte, Fernand Nathan, 1980 ; et rééd.
-Autres
-Here Comes Thursday, 1966
+Un amour de Charlotte, Fernand Nathan, 1980 ; et rééd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Michael_Bond</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Michael_Bond</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Here Comes Thursday, 1966
 Samedi descend du ciel, ill. de Mette Ivers, Fernand Nathan, 1984
 The tale of the castle mice, ill. Emily Sutton, 2016
 Il était une fois le château des souris, ill. Emily Sutton, Albin Michel Jeunesse, 2017</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Michael_Bond</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Michael_Bond</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Officier de l'ordre de l'Empire britannique (OBE) en 1997[3].
-Commandeur de l’ordre de l’Empire britannique (CBE) le 29 octobre 2015[1].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Officier de l'ordre de l'Empire britannique (OBE) en 1997.
+Commandeur de l’ordre de l’Empire britannique (CBE) le 29 octobre 2015.</t>
         </is>
       </c>
     </row>
